--- a/app/data/inputs/mascarpone/2021.04.06 План по варкам.xlsx
+++ b/app/data/inputs/mascarpone/2021.04.06 План по варкам.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E9BDE-8A43-9B4D-B905-F40BF6F04855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF3F9E2-8531-5D4D-987F-597A3D5E70ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="691">
   <si>
     <t>Отчет от</t>
   </si>
@@ -2100,9 +2100,6 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>Заквасочник</t>
-  </si>
-  <si>
     <t>Крем чиз</t>
   </si>
   <si>
@@ -46876,7 +46873,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47599,8 +47596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56537,8 +56534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK326"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56573,7 +56570,7 @@
         <v>676</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>678</v>
@@ -65857,7 +65854,7 @@
   <dimension ref="A1:AMK326"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -74955,7 +74952,7 @@
         <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>152</v>
@@ -74966,7 +74963,7 @@
         <v>685</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>685</v>
@@ -74977,7 +74974,7 @@
         <v>687</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>687</v>

--- a/app/data/inputs/mascarpone/2021.04.06 План по варкам.xlsx
+++ b/app/data/inputs/mascarpone/2021.04.06 План по варкам.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF3F9E2-8531-5D4D-987F-597A3D5E70ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69620F4D-24E8-6A42-86A3-DA7CBD583983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -47597,7 +47597,7 @@
   <dimension ref="A1:AMK326"/>
   <sheetViews>
     <sheetView zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48209,7 +48209,7 @@
         <v>309</v>
       </c>
       <c r="F12" s="24">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -48225,7 +48225,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -48266,7 +48266,7 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -48285,7 +48285,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="6"/>
@@ -48293,7 +48293,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48350,7 +48350,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48379,7 +48379,7 @@
         <v>310</v>
       </c>
       <c r="F15" s="24">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="G15" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -48395,7 +48395,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -48407,7 +48407,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48436,7 +48436,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -48455,7 +48455,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="6"/>
@@ -48463,7 +48463,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48507,7 +48507,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48551,7 +48551,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48639,7 +48639,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48683,7 +48683,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48727,7 +48727,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48771,7 +48771,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48815,7 +48815,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48859,7 +48859,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48903,7 +48903,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48947,7 +48947,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -48991,7 +48991,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R28" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49035,7 +49035,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R29" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49079,7 +49079,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R30" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49123,7 +49123,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49167,7 +49167,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49211,7 +49211,7 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49255,7 +49255,7 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R34" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -49299,7 +49299,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" ref="N35:N66" ca="1" si="15">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13" t="str">
         <f t="shared" ref="R35:R66" ca="1" si="16">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -49343,7 +49343,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49387,7 +49387,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R37" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49431,7 +49431,7 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R38" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R39" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49519,7 +49519,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R40" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49563,7 +49563,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R41" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49607,7 +49607,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R42" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49651,7 +49651,7 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R43" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49695,7 +49695,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R44" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49739,7 +49739,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R45" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49783,7 +49783,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R46" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49827,7 +49827,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R47" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49871,7 +49871,7 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R48" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49915,7 +49915,7 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R49" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -49959,7 +49959,7 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R50" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50003,7 +50003,7 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50047,7 +50047,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R52" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50091,7 +50091,7 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R53" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50135,7 +50135,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R54" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50179,7 +50179,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R55" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50223,7 +50223,7 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R56" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50267,7 +50267,7 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R57" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50311,7 +50311,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R58" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R59" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50399,7 +50399,7 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R60" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50443,7 +50443,7 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R61" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50487,7 +50487,7 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R62" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50531,7 +50531,7 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R63" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50575,7 +50575,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R64" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50619,7 +50619,7 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R65" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50663,7 +50663,7 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R66" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -50707,7 +50707,7 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N98" ca="1" si="23">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R67" s="13" t="str">
         <f t="shared" ref="R67:R98" ca="1" si="24">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -50751,7 +50751,7 @@
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R68" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -50795,7 +50795,7 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R69" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -50839,7 +50839,7 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R70" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -50883,7 +50883,7 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R71" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -50927,7 +50927,7 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R72" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -50971,7 +50971,7 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R73" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51015,7 +51015,7 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R74" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51059,7 +51059,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R75" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51103,7 +51103,7 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R76" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51147,7 +51147,7 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R77" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51191,7 +51191,7 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R78" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R79" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51279,7 +51279,7 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R80" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51323,7 +51323,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R81" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51367,7 +51367,7 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R82" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51411,7 +51411,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R83" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51455,7 +51455,7 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R84" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51499,7 +51499,7 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R85" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51543,7 +51543,7 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R86" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51587,7 +51587,7 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R87" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51631,7 +51631,7 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R88" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51675,7 +51675,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R89" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51719,7 +51719,7 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R90" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51763,7 +51763,7 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R91" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51807,7 +51807,7 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R92" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51851,7 +51851,7 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R93" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51895,7 +51895,7 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R94" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51939,7 +51939,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R95" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -51983,7 +51983,7 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R96" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -52027,7 +52027,7 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R97" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -52071,7 +52071,7 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R98" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" ref="N99:N123" ca="1" si="31">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R99" s="13" t="str">
         <f t="shared" ref="R99:R130" ca="1" si="32">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -52159,7 +52159,7 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R100" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52203,7 +52203,7 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R101" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52247,7 +52247,7 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R102" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52291,7 +52291,7 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R103" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52335,7 +52335,7 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R104" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52379,7 +52379,7 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R105" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52423,7 +52423,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R106" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52467,7 +52467,7 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R107" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52511,7 +52511,7 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R108" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52555,7 +52555,7 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R109" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52599,7 +52599,7 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R110" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52643,7 +52643,7 @@
       </c>
       <c r="N111" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R111" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52687,7 +52687,7 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R112" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52731,7 +52731,7 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R113" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52775,7 +52775,7 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R114" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52819,7 +52819,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R115" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52863,7 +52863,7 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R116" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52907,7 +52907,7 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R117" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52951,7 +52951,7 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R118" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R119" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -53039,7 +53039,7 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R120" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -53083,7 +53083,7 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R121" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -53127,7 +53127,7 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R122" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -53171,7 +53171,7 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="R123" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -56534,8 +56534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56864,7 +56864,7 @@
         <v>292</v>
       </c>
       <c r="F7" s="28">
-        <v>137</v>
+        <v>450</v>
       </c>
       <c r="G7" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -56880,7 +56880,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>137</v>
+        <v>450</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -56921,7 +56921,7 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="6"/>
@@ -56948,7 +56948,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R8" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57005,7 +57005,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R9" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57053,7 +57053,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="6"/>
@@ -57061,7 +57061,7 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R10" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57118,7 +57118,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57166,7 +57166,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="6"/>
@@ -57174,7 +57174,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57231,7 +57231,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57279,7 +57279,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="6"/>
@@ -57287,7 +57287,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57316,7 +57316,7 @@
         <v>294</v>
       </c>
       <c r="F15" s="28">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="G15" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -57332,7 +57332,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -57344,7 +57344,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-313</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57373,7 +57373,7 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -57392,7 +57392,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="6"/>
@@ -57400,7 +57400,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57457,7 +57457,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57486,7 +57486,7 @@
         <v>299</v>
       </c>
       <c r="F18" s="30">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="G18" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -57514,7 +57514,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57543,7 +57543,7 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -57562,7 +57562,7 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-907</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="6"/>
@@ -57570,7 +57570,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-907</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57599,7 +57599,7 @@
         <v>301</v>
       </c>
       <c r="F20" s="32">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="G20" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -57615,7 +57615,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -57627,7 +57627,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-907</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57656,7 +57656,7 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -57675,7 +57675,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="6"/>
@@ -57683,7 +57683,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57727,7 +57727,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57771,7 +57771,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57815,7 +57815,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57859,7 +57859,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57903,7 +57903,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57947,7 +57947,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -57991,7 +57991,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R28" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58035,7 +58035,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R29" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58079,7 +58079,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R30" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58123,7 +58123,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58167,7 +58167,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58211,7 +58211,7 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58255,7 +58255,7 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R34" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -58299,7 +58299,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" ref="N35:N66" ca="1" si="15">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13" t="str">
         <f t="shared" ref="R35:R66" ca="1" si="16">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -58343,7 +58343,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58387,7 +58387,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R37" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58431,7 +58431,7 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R38" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58475,7 +58475,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R39" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58519,7 +58519,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R40" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58563,7 +58563,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R41" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58607,7 +58607,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R42" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58651,7 +58651,7 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R43" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58695,7 +58695,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R44" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58739,7 +58739,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R45" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58783,7 +58783,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R46" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58827,7 +58827,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R47" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58871,7 +58871,7 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R48" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R49" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -58959,7 +58959,7 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R50" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59003,7 +59003,7 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59047,7 +59047,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R52" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59091,7 +59091,7 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R53" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59135,7 +59135,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R54" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59179,7 +59179,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R55" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59223,7 +59223,7 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R56" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59267,7 +59267,7 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R57" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59311,7 +59311,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R58" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59355,7 +59355,7 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R59" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59399,7 +59399,7 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R60" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59443,7 +59443,7 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R61" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59487,7 +59487,7 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R62" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59531,7 +59531,7 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R63" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59575,7 +59575,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R64" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59619,7 +59619,7 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R65" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59663,7 +59663,7 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R66" s="13" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -59707,7 +59707,7 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N98" ca="1" si="23">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R67" s="13" t="str">
         <f t="shared" ref="R67:R98" ca="1" si="24">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -59751,7 +59751,7 @@
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R68" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -59795,7 +59795,7 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R69" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -59839,7 +59839,7 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R70" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -59883,7 +59883,7 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R71" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -59927,7 +59927,7 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R72" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -59971,7 +59971,7 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R73" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60015,7 +60015,7 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R74" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60059,7 +60059,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R75" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60103,7 +60103,7 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R76" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60147,7 +60147,7 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R77" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60191,7 +60191,7 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R78" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60235,7 +60235,7 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R79" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60279,7 +60279,7 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R80" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60323,7 +60323,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R81" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60367,7 +60367,7 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R82" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60411,7 +60411,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R83" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60455,7 +60455,7 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R84" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60499,7 +60499,7 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R85" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60543,7 +60543,7 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R86" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60587,7 +60587,7 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R87" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60631,7 +60631,7 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R88" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R89" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60719,7 +60719,7 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R90" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60763,7 +60763,7 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R91" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60807,7 +60807,7 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R92" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60851,7 +60851,7 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R93" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60895,7 +60895,7 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R94" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60939,7 +60939,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R95" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -60983,7 +60983,7 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R96" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -61027,7 +61027,7 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R97" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -61071,7 +61071,7 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R98" s="13" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -61115,7 +61115,7 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" ref="N99:N123" ca="1" si="31">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R99" s="13" t="str">
         <f t="shared" ref="R99:R130" ca="1" si="32">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -61159,7 +61159,7 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R100" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61203,7 +61203,7 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R101" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61247,7 +61247,7 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R102" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61291,7 +61291,7 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R103" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61335,7 +61335,7 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R104" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61379,7 +61379,7 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R105" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61423,7 +61423,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R106" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61467,7 +61467,7 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R107" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61511,7 +61511,7 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R108" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R109" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61599,7 +61599,7 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R110" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61643,7 +61643,7 @@
       </c>
       <c r="N111" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R111" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61687,7 +61687,7 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R112" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61731,7 +61731,7 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R113" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61775,7 +61775,7 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R114" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61819,7 +61819,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R115" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61863,7 +61863,7 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R116" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61907,7 +61907,7 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R117" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61951,7 +61951,7 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R118" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -61995,7 +61995,7 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R119" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -62039,7 +62039,7 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R120" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -62083,7 +62083,7 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R121" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -62127,7 +62127,7 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R122" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -62171,7 +62171,7 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>-1134</v>
+        <v>0</v>
       </c>
       <c r="R123" s="13" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -65853,8 +65853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK326"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -66013,7 +66013,7 @@
         <v>289</v>
       </c>
       <c r="F4" s="34">
-        <v>24</v>
+        <v>368</v>
       </c>
       <c r="G4" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -66029,7 +66029,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>368</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -66070,7 +66070,7 @@
       </c>
       <c r="G5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" ca="1" si="1"/>
@@ -66089,7 +66089,7 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="5"/>
@@ -66097,7 +66097,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R5" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66141,7 +66141,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R6" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66185,7 +66185,7 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R7" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66229,7 +66229,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R8" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66273,7 +66273,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R9" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66317,7 +66317,7 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R10" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66361,7 +66361,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66405,7 +66405,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66449,7 +66449,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66493,7 +66493,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66537,7 +66537,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66581,7 +66581,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66625,7 +66625,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66669,7 +66669,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66713,7 +66713,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66757,7 +66757,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66801,7 +66801,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66845,7 +66845,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66889,7 +66889,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66933,7 +66933,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -66977,7 +66977,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67021,7 +67021,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67065,7 +67065,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67109,7 +67109,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R28" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67153,7 +67153,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R29" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67197,7 +67197,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R30" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67241,7 +67241,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67285,7 +67285,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67329,7 +67329,7 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67373,7 +67373,7 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R34" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -67417,7 +67417,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" ref="N35:N66" ca="1" si="14">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13" t="str">
         <f t="shared" ref="R35:R66" ca="1" si="15">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -67461,7 +67461,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67505,7 +67505,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R37" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67549,7 +67549,7 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R38" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67593,7 +67593,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R39" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67637,7 +67637,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R40" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67681,7 +67681,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R41" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67725,7 +67725,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R42" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67769,7 +67769,7 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R43" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67813,7 +67813,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R44" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67857,7 +67857,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R45" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67901,7 +67901,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R46" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67945,7 +67945,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R47" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -67989,7 +67989,7 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R48" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68033,7 +68033,7 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R49" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68077,7 +68077,7 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R50" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68121,7 +68121,7 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68165,7 +68165,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R52" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68209,7 +68209,7 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R53" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68253,7 +68253,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R54" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68297,7 +68297,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R55" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68341,7 +68341,7 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R56" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68385,7 +68385,7 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R57" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68429,7 +68429,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R58" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68473,7 +68473,7 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R59" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68517,7 +68517,7 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R60" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68561,7 +68561,7 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R61" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68605,7 +68605,7 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R62" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68649,7 +68649,7 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R63" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68693,7 +68693,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R64" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68737,7 +68737,7 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R65" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68781,7 +68781,7 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R66" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -68825,7 +68825,7 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N98" ca="1" si="22">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R67" s="13" t="str">
         <f t="shared" ref="R67:R98" ca="1" si="23">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -68869,7 +68869,7 @@
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R68" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -68913,7 +68913,7 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R69" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -68957,7 +68957,7 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R70" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69001,7 +69001,7 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R71" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69045,7 +69045,7 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R72" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69089,7 +69089,7 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R73" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69133,7 +69133,7 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R74" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69177,7 +69177,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R75" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69221,7 +69221,7 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R76" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69265,7 +69265,7 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R77" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69309,7 +69309,7 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R78" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69353,7 +69353,7 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R79" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69397,7 +69397,7 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R80" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69441,7 +69441,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R81" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69485,7 +69485,7 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R82" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69529,7 +69529,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R83" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69573,7 +69573,7 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R84" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69617,7 +69617,7 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R85" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69661,7 +69661,7 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R86" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69705,7 +69705,7 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R87" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69749,7 +69749,7 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R88" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69793,7 +69793,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R89" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69837,7 +69837,7 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R90" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69881,7 +69881,7 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R91" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69925,7 +69925,7 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R92" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -69969,7 +69969,7 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R93" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70013,7 +70013,7 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R94" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70057,7 +70057,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R95" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70101,7 +70101,7 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R96" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70145,7 +70145,7 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R97" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70189,7 +70189,7 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R98" s="13" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -70233,7 +70233,7 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" ref="N99:N123" ca="1" si="30">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R99" s="13" t="str">
         <f t="shared" ref="R99:R130" ca="1" si="31">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -70277,7 +70277,7 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R100" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70321,7 +70321,7 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R101" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70365,7 +70365,7 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R102" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70409,7 +70409,7 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R103" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70453,7 +70453,7 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R104" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70497,7 +70497,7 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R105" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70541,7 +70541,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R106" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70585,7 +70585,7 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R107" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70629,7 +70629,7 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R108" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70673,7 +70673,7 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R109" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70717,7 +70717,7 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R110" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70761,7 +70761,7 @@
       </c>
       <c r="N111" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R111" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70805,7 +70805,7 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R112" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70849,7 +70849,7 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R113" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70893,7 +70893,7 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R114" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70937,7 +70937,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R115" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -70981,7 +70981,7 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R116" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71025,7 +71025,7 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R117" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71069,7 +71069,7 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R118" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71113,7 +71113,7 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R119" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71157,7 +71157,7 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R120" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71201,7 +71201,7 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R121" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71248,7 +71248,7 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R122" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -71295,7 +71295,7 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>-344</v>
+        <v>0</v>
       </c>
       <c r="R123" s="13" t="str">
         <f t="shared" ca="1" si="31"/>
